--- a/2wo/contr.xlsx
+++ b/2wo/contr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Desktop\Working\WORK\2wo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54B7384-CBF5-4FB4-8367-67BBCC523B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92341B94-BB53-45BD-A266-575A111FDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="1245" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -293,6 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -374,19 +375,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>576</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>640</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>666</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>602</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>576</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,19 +399,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>789</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>732</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>761</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>818</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>789</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,19 +457,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>442</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>506</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>532</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>442</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,19 +481,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>621</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>562</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>590</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>649</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>621</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,21 +538,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>712</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>787</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>470</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -561,21 +547,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>643</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>754</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>643</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1627,190 +1598,168 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9">
-        <v>576</v>
+        <v>413</v>
       </c>
       <c r="B1" s="10">
-        <v>789</v>
+        <v>676</v>
       </c>
       <c r="C1" s="9">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="D1" s="10">
-        <v>621</v>
-      </c>
-      <c r="E1" s="9">
-        <v>470</v>
-      </c>
-      <c r="F1" s="10">
-        <v>643</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
+        <v>432</v>
+      </c>
+      <c r="B2" s="12">
         <v>640</v>
       </c>
-      <c r="B2" s="12">
-        <v>732</v>
-      </c>
       <c r="C2" s="11">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="D2" s="12">
-        <v>562</v>
-      </c>
-      <c r="E2" s="11">
-        <v>712</v>
-      </c>
-      <c r="F2" s="12">
-        <v>480</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>666</v>
+        <v>509</v>
       </c>
       <c r="B3" s="12">
-        <v>761</v>
+        <v>681</v>
       </c>
       <c r="C3" s="11">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="D3" s="12">
-        <v>590</v>
-      </c>
-      <c r="E3" s="11">
-        <v>787</v>
-      </c>
-      <c r="F3" s="12">
-        <v>592</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
-        <v>602</v>
+        <v>490</v>
       </c>
       <c r="B4" s="15">
-        <v>818</v>
+        <v>716</v>
       </c>
       <c r="C4" s="14">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="D4" s="15">
-        <v>649</v>
-      </c>
-      <c r="E4" s="14">
-        <v>545</v>
-      </c>
-      <c r="F4" s="15">
-        <v>754</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <f>A1</f>
-        <v>576</v>
+        <v>413</v>
       </c>
       <c r="B5" s="16">
-        <f t="shared" ref="B5:F5" si="0">B1</f>
-        <v>789</v>
+        <f t="shared" ref="B5:D5" si="0">B1</f>
+        <v>676</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="0"/>
-        <v>621</v>
-      </c>
-      <c r="E5" s="16">
-        <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="F5" s="17">
-        <f t="shared" si="0"/>
-        <v>643</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>(A1*B2-B1*A2)</f>
-        <v>-83328</v>
+        <v>-27712</v>
       </c>
       <c r="B7" s="7">
         <f>SUMPRODUCT(A7:A10)/2</f>
-        <v>3338</v>
+        <v>3503</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:F7" si="1">(C1*D2-D1*C2)</f>
-        <v>-65822</v>
+        <f t="shared" ref="C7" si="1">(C1*D2-D1*C2)</f>
+        <v>-27712</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" ref="D7:F7" si="2">SUMPRODUCT(C7:C10)/2</f>
-        <v>3326</v>
+        <f t="shared" ref="D7" si="2">SUMPRODUCT(C7:C10)/2</f>
+        <v>3503</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:F7" si="3">(E1*F2-F1*E2)</f>
-        <v>-232216</v>
+        <f t="shared" ref="E7" si="3">(E1*F2-F1*E2)</f>
+        <v>0</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ref="F7" si="4">SUMPRODUCT(E7:E10)/2</f>
-        <v>39170.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ref="A8:E11" si="5">(A2*B3-B2*A3)</f>
-        <v>-472</v>
+        <f t="shared" ref="A8:E10" si="5">(A2*B3-B2*A3)</f>
+        <v>-31568</v>
       </c>
       <c r="C8">
         <f t="shared" si="5"/>
-        <v>-444</v>
+        <v>-31568</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="5"/>
-        <v>43744</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="5"/>
-        <v>86666</v>
+        <v>30754</v>
       </c>
       <c r="C9">
         <f t="shared" si="5"/>
-        <v>69148</v>
+        <v>30754</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="5"/>
-        <v>270758</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="5"/>
-        <v>3810</v>
+        <v>35532</v>
       </c>
       <c r="C10">
         <f t="shared" si="5"/>
-        <v>3770</v>
+        <v>35532</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="5"/>
-        <v>-3945</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -1818,73 +1767,141 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>ABS(A1-B1)</f>
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="B12:F12" si="6">ABS(C1-D1)</f>
-        <v>179</v>
+        <f t="shared" ref="C12:E12" si="6">ABS(C1-D1)</f>
+        <v>263</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="6"/>
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ref="A13:F15" si="7">ABS(A2-B2)</f>
-        <v>92</v>
+        <f t="shared" ref="A13:E15" si="7">ABS(A2-B2)</f>
+        <v>208</v>
       </c>
       <c r="C13">
         <f t="shared" si="7"/>
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="7"/>
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="C14">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="7"/>
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="7"/>
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C15">
         <f t="shared" si="7"/>
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="7"/>
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>ATAN((B2-B3)/(A2-A3))</f>
-        <v>0.83988961963817954</v>
+        <v>0.48928301752248354</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>DEGREES(ATAN((B1-B2)/(A1-A2)))</f>
-        <v>-41.689058485388557</v>
+        <f>DEGREES(ATAN((B2-B1)/(A2-A1)))</f>
+        <v>-62.175903615746741</v>
+      </c>
+      <c r="C18" s="19">
+        <f>DEGREES(ATAN((B4-B1)/(A4-A1)))</f>
+        <v>27.450997770932229</v>
+      </c>
+      <c r="D18" s="19">
+        <f>DEGREES(ATAN((B2-B1)/(A2-A1)))</f>
+        <v>-62.175903615746741</v>
+      </c>
+      <c r="E18">
+        <f>SQRT((A1-A2)^2+(B1-B2)^2)</f>
+        <v>40.70626487409524</v>
+      </c>
+      <c r="F18">
+        <f>(A1-A2)</f>
+        <v>-19</v>
+      </c>
+      <c r="G18">
+        <f>(B1-B2)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>ATAN((B4-B1)/(A4-A1))</f>
+        <v>0.47911029406039152</v>
+      </c>
+      <c r="D19">
+        <f>ATAN((B3-B1)/(A3-A1))</f>
+        <v>5.2036314809216201E-2</v>
+      </c>
+      <c r="E19">
+        <f>SQRT((A3-A4)^2+(B3-B4)^2)</f>
+        <v>39.824615503479755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>(B4-B1)/(A4-A1)</f>
+        <v>0.51948051948051943</v>
+      </c>
+      <c r="D20">
+        <f>(B4-B1)/(A4-A1)</f>
+        <v>0.51948051948051943</v>
+      </c>
+      <c r="E20">
+        <f>SQRT((A1-A4)^2+(B1-B4)^2)</f>
+        <v>86.769810418140253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>(B4-B1)</f>
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <f>(B3-B1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>(A4-A1)</f>
+        <v>77</v>
+      </c>
+      <c r="D22">
+        <f>(A3-A1)</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/2wo/contr.xlsx
+++ b/2wo/contr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Desktop\Working\WORK\2wo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\GitHub\WORK\2wo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92341B94-BB53-45BD-A266-575A111FDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E8FA6-8157-4BCF-935F-B0434C3118A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="1245" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9048" yWindow="1476" windowWidth="11712" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -294,6 +294,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -375,19 +387,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>413</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>432</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509</c:v>
+                  <c:v>1014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>490</c:v>
+                  <c:v>1014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>413</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,19 +411,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>640</c:v>
+                  <c:v>1139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>681</c:v>
+                  <c:v>1139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>716</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,19 +469,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>413</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>432</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>490</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>413</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -481,19 +493,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>676</c:v>
+                  <c:v>719.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>640</c:v>
+                  <c:v>419.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>681</c:v>
+                  <c:v>419.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>716</c:v>
+                  <c:v>719.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>676</c:v>
+                  <c:v>719.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,307 +1613,315 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="B1" s="10">
-        <v>676</v>
-      </c>
-      <c r="C1" s="9">
-        <v>413</v>
-      </c>
-      <c r="D1" s="10">
-        <v>676</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="23">
+        <f>A3/2-200</f>
+        <v>307</v>
+      </c>
+      <c r="D1" s="22">
+        <f>B3/2+150</f>
+        <v>719.5</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="B2" s="12">
-        <v>640</v>
-      </c>
-      <c r="C2" s="11">
-        <v>432</v>
-      </c>
-      <c r="D2" s="12">
-        <v>640</v>
+        <v>1139</v>
+      </c>
+      <c r="C2" s="10">
+        <f>A3/2-200</f>
+        <v>307</v>
+      </c>
+      <c r="D2" s="20">
+        <f>B3/2-150</f>
+        <v>419.5</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>509</v>
-      </c>
-      <c r="B3" s="12">
-        <v>681</v>
-      </c>
-      <c r="C3" s="11">
-        <v>509</v>
-      </c>
-      <c r="D3" s="12">
-        <v>681</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1014</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1139</v>
+      </c>
+      <c r="C3" s="21">
+        <f>A3/2+200</f>
+        <v>707</v>
+      </c>
+      <c r="D3" s="22">
+        <f>B3/2-150</f>
+        <v>419.5</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>490</v>
-      </c>
-      <c r="B4" s="15">
-        <v>716</v>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>1014</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
       </c>
       <c r="C4" s="14">
-        <v>490</v>
+        <f>A3/2+200</f>
+        <v>707</v>
       </c>
       <c r="D4" s="15">
-        <v>716</v>
+        <f>B3/2+150</f>
+        <v>719.5</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <f>A1</f>
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="B5" s="16">
         <f t="shared" ref="B5:D5" si="0">B1</f>
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="D5" s="17">
-        <f t="shared" si="0"/>
-        <v>676</v>
+        <f>D1</f>
+        <v>719.5</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>(A1*B2-B1*A2)</f>
-        <v>-27712</v>
+        <v>0</v>
       </c>
       <c r="B7" s="7">
         <f>SUMPRODUCT(A7:A10)/2</f>
-        <v>3503</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7" si="1">(C1*D2-D1*C2)</f>
-        <v>-27712</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" ref="D7" si="2">SUMPRODUCT(C7:C10)/2</f>
-        <v>3503</v>
+        <v>0</v>
+      </c>
+      <c r="C7" t="e">
+        <f>(C1*D1-C2*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="7" t="e">
+        <f t="shared" ref="D7" si="1">SUMPRODUCT(C7:C10)/2</f>
+        <v>#REF!</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7" si="3">(E1*F2-F1*E2)</f>
+        <f t="shared" ref="E7" si="2">(E1*F2-F1*E2)</f>
         <v>0</v>
       </c>
       <c r="F7" s="18">
-        <f t="shared" ref="F7" si="4">SUMPRODUCT(E7:E10)/2</f>
+        <f t="shared" ref="F7" si="3">SUMPRODUCT(E7:E10)/2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" ref="A8:E10" si="5">(A2*B3-B2*A3)</f>
-        <v>-31568</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="5"/>
-        <v>-31568</v>
+        <f>(A2*B4-B2*A4)</f>
+        <v>-1154946</v>
+      </c>
+      <c r="C8" t="e">
+        <f>(#REF!*D3-D1*C3)</f>
+        <v>#REF!</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A8:E10" si="4">(E2*F3-F2*E3)</f>
         <v>0</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="5"/>
-        <v>30754</v>
+        <f>(A4*B3-B4*A3)</f>
+        <v>1154946</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
-        <v>30754</v>
+        <f t="shared" si="4"/>
+        <v>212100</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="5"/>
-        <v>35532</v>
+        <f>(A3*B5-B3*A5)</f>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
-        <v>35532</v>
+        <f t="shared" si="4"/>
+        <v>287800</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>ABS(A1-B1)</f>
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:E12" si="6">ABS(C1-D1)</f>
-        <v>263</v>
+        <f>ABS(C1-C2)</f>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C12:E12" si="5">ABS(E1-F1)</f>
         <v>0</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" ref="A13:E15" si="7">ABS(A2-B2)</f>
-        <v>208</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="7"/>
-        <v>208</v>
+        <f t="shared" ref="A13:E15" si="6">ABS(A2-B2)</f>
+        <v>1139</v>
+      </c>
+      <c r="C13" t="e">
+        <f>ABS(#REF!-D1)</f>
+        <v>#REF!</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="7"/>
-        <v>172</v>
+        <f>ABS(A4-B4)</f>
+        <v>1014</v>
       </c>
       <c r="C14">
-        <f t="shared" si="7"/>
-        <v>172</v>
+        <f t="shared" si="6"/>
+        <v>287.5</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="7"/>
-        <v>226</v>
+        <f>ABS(A3-B3)</f>
+        <v>125</v>
       </c>
       <c r="C15">
-        <f t="shared" si="7"/>
-        <v>226</v>
+        <f t="shared" si="6"/>
+        <v>12.5</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>ATAN((B2-B3)/(A2-A3))</f>
-        <v>0.48928301752248354</v>
+        <f>ATAN((B2-B4)/(A2-A4))</f>
+        <v>-0.84339158360337063</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="e">
         <f>DEGREES(ATAN((B2-B1)/(A2-A1)))</f>
-        <v>-62.175903615746741</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C18" s="19">
-        <f>DEGREES(ATAN((B4-B1)/(A4-A1)))</f>
-        <v>27.450997770932229</v>
-      </c>
-      <c r="D18" s="19">
+        <f>DEGREES(ATAN((B3-B1)/(A3-A1)))</f>
+        <v>48.322778217328057</v>
+      </c>
+      <c r="D18" s="19" t="e">
         <f>DEGREES(ATAN((B2-B1)/(A2-A1)))</f>
-        <v>-62.175903615746741</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E18">
         <f>SQRT((A1-A2)^2+(B1-B2)^2)</f>
-        <v>40.70626487409524</v>
+        <v>1139</v>
       </c>
       <c r="F18">
         <f>(A1-A2)</f>
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f>(B1-B2)</f>
-        <v>36</v>
+        <v>-1139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19">
+        <f>ATAN((B3-B1)/(A3-A1))</f>
+        <v>0.84339158360337063</v>
+      </c>
+      <c r="D19">
         <f>ATAN((B4-B1)/(A4-A1))</f>
-        <v>0.47911029406039152</v>
-      </c>
-      <c r="D19">
-        <f>ATAN((B3-B1)/(A3-A1))</f>
-        <v>5.2036314809216201E-2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <f>SQRT((A3-A4)^2+(B3-B4)^2)</f>
-        <v>39.824615503479755</v>
+        <f>SQRT((A4-A3)^2+(B4-B3)^2)</f>
+        <v>1139</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20">
-        <f>(B4-B1)/(A4-A1)</f>
-        <v>0.51948051948051943</v>
+        <f>(B3-B1)/(A3-A1)</f>
+        <v>1.1232741617357003</v>
       </c>
       <c r="D20">
-        <f>(B4-B1)/(A4-A1)</f>
-        <v>0.51948051948051943</v>
+        <f>(B3-B1)/(A3-A1)</f>
+        <v>1.1232741617357003</v>
       </c>
       <c r="E20">
-        <f>SQRT((A1-A4)^2+(B1-B4)^2)</f>
-        <v>86.769810418140253</v>
+        <f>SQRT((A1-A3)^2+(B1-B3)^2)</f>
+        <v>1524.9645897528244</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21">
+        <f>(B3-B1)</f>
+        <v>1139</v>
+      </c>
+      <c r="D21">
         <f>(B4-B1)</f>
-        <v>40</v>
-      </c>
-      <c r="D21">
-        <f>(B3-B1)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22">
+        <f>(A3-A1)</f>
+        <v>1014</v>
+      </c>
+      <c r="D22">
         <f>(A4-A1)</f>
-        <v>77</v>
-      </c>
-      <c r="D22">
-        <f>(A3-A1)</f>
-        <v>96</v>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>

--- a/2wo/contr.xlsx
+++ b/2wo/contr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\GitHub\WORK\2wo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E8FA6-8157-4BCF-935F-B0434C3118A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1113CDAF-4565-4622-8213-AAFD7868476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9048" yWindow="1476" windowWidth="11712" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-60" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -261,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -294,9 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,8 +345,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3136482939632545E-2"/>
-          <c:y val="5.0925925925925923E-2"/>
+          <c:x val="7.8469816272965884E-2"/>
+          <c:y val="7.3678930065482429E-2"/>
           <c:w val="0.87119685039370076"/>
           <c:h val="0.8416746864975212"/>
         </c:manualLayout>
@@ -387,19 +388,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1014</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1014</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,19 +412,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1139</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1139</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,19 +470,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>307</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>307</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>707</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>707</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>307</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,19 +494,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>719.5</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>419.5</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>419.5</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>719.5</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>719.5</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,16 +1310,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1612,114 +1613,108 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23">
-        <f>A3/2-200</f>
-        <v>307</v>
-      </c>
-      <c r="D1" s="22">
-        <f>B3/2+150</f>
-        <v>719.5</v>
+        <v>269</v>
+      </c>
+      <c r="C1" s="22">
+        <f>69+20</f>
+        <v>89</v>
+      </c>
+      <c r="D1" s="21">
+        <v>355</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B2" s="12">
-        <v>1139</v>
-      </c>
-      <c r="C2" s="10">
-        <f>A3/2-200</f>
-        <v>307</v>
-      </c>
-      <c r="D2" s="20">
-        <f>B3/2-150</f>
-        <v>419.5</v>
+        <v>260</v>
+      </c>
+      <c r="C2" s="22">
+        <f>69+20</f>
+        <v>89</v>
+      </c>
+      <c r="D2" s="21">
+        <v>355</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>1014</v>
+        <v>128</v>
       </c>
       <c r="B3" s="15">
-        <v>1139</v>
-      </c>
-      <c r="C3" s="21">
-        <f>A3/2+200</f>
-        <v>707</v>
-      </c>
-      <c r="D3" s="22">
-        <f>B3/2-150</f>
-        <v>419.5</v>
+        <v>346</v>
+      </c>
+      <c r="C3" s="20">
+        <v>89</v>
+      </c>
+      <c r="D3" s="21">
+        <v>269</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <v>1014</v>
+        <v>89</v>
       </c>
       <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <f>A3/2+200</f>
-        <v>707</v>
-      </c>
-      <c r="D4" s="15">
-        <f>B3/2+150</f>
-        <v>719.5</v>
+        <v>355</v>
+      </c>
+      <c r="C4" s="20">
+        <v>89</v>
+      </c>
+      <c r="D4" s="21">
+        <v>269</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <f>A1</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B5" s="16">
-        <f t="shared" ref="B5:D5" si="0">B1</f>
-        <v>0</v>
+        <f t="shared" ref="B5:C5" si="0">B1</f>
+        <v>269</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>89</v>
       </c>
       <c r="D5" s="17">
         <f>D1</f>
-        <v>719.5</v>
+        <v>355</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>(A1*B2-B1*A2)</f>
-        <v>0</v>
+        <v>-10843</v>
       </c>
       <c r="B7" s="7">
         <f>SUMPRODUCT(A7:A10)/2</f>
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="C7" t="e">
         <f>(C1*D1-C2*#REF!)</f>
@@ -1738,29 +1733,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>(A2*B4-B2*A4)</f>
-        <v>-1154946</v>
+        <v>14845</v>
       </c>
       <c r="C8" t="e">
         <f>(#REF!*D3-D1*C3)</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="A8:E10" si="4">(E2*F3-F2*E3)</f>
+        <f t="shared" ref="C8:E10" si="4">(E2*F3-F2*E3)</f>
         <v>0</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>(A4*B3-B4*A3)</f>
-        <v>1154946</v>
+        <v>-14646</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
-        <v>212100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="4"/>
@@ -1768,14 +1763,14 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>(A3*B5-B3*A5)</f>
-        <v>0</v>
+        <v>10558</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
-        <v>287800</v>
+        <v>7654</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="4"/>
@@ -1783,26 +1778,26 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>ABS(A1-B1)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C12">
         <f>ABS(C1-C2)</f>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="C12:E12" si="5">ABS(E1-F1)</f>
+        <f t="shared" ref="E12" si="5">ABS(E1-F1)</f>
         <v>0</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:E15" si="6">ABS(A2-B2)</f>
-        <v>1139</v>
+        <v>153</v>
       </c>
       <c r="C13" t="e">
         <f>ABS(#REF!-D1)</f>
@@ -1814,14 +1809,14 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>ABS(A4-B4)</f>
-        <v>1014</v>
+        <v>266</v>
       </c>
       <c r="C14">
         <f t="shared" si="6"/>
-        <v>287.5</v>
+        <v>180</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="6"/>
@@ -1829,14 +1824,14 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>ABS(A3-B3)</f>
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="C15">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>180</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="6"/>
@@ -1844,84 +1839,84 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>ATAN((B2-B4)/(A2-A4))</f>
-        <v>-0.84339158360337063</v>
+        <v>-1.3835424070614137</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="e">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f>DEGREES(ATAN((B2-B1)/(A2-A1)))</f>
-        <v>#DIV/0!</v>
+        <v>-13.324531261890785</v>
       </c>
       <c r="C18" s="19">
         <f>DEGREES(ATAN((B3-B1)/(A3-A1)))</f>
-        <v>48.322778217328057</v>
-      </c>
-      <c r="D18" s="19" t="e">
+        <v>52.539445139509311</v>
+      </c>
+      <c r="D18" s="19">
         <f>DEGREES(ATAN((B2-B1)/(A2-A1)))</f>
-        <v>#DIV/0!</v>
+        <v>-13.324531261890785</v>
       </c>
       <c r="E18">
         <f>SQRT((A1-A2)^2+(B1-B2)^2)</f>
-        <v>1139</v>
+        <v>39.05124837953327</v>
       </c>
       <c r="F18">
         <f>(A1-A2)</f>
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="G18">
         <f>(B1-B2)</f>
-        <v>-1139</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>ATAN((B3-B1)/(A3-A1))</f>
-        <v>0.84339158360337063</v>
+        <v>0.91698630485536903</v>
       </c>
       <c r="D19">
         <f>ATAN((B4-B1)/(A4-A1))</f>
-        <v>0</v>
+        <v>1.3422996875030344</v>
       </c>
       <c r="E19">
         <f>SQRT((A4-A3)^2+(B4-B3)^2)</f>
-        <v>1139</v>
+        <v>40.024992192379003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>(B3-B1)/(A3-A1)</f>
-        <v>1.1232741617357003</v>
+        <v>1.3050847457627119</v>
       </c>
       <c r="D20">
         <f>(B3-B1)/(A3-A1)</f>
-        <v>1.1232741617357003</v>
+        <v>1.3050847457627119</v>
       </c>
       <c r="E20">
         <f>SQRT((A1-A3)^2+(B1-B3)^2)</f>
-        <v>1524.9645897528244</v>
+        <v>97.005154502222197</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>(B3-B1)</f>
-        <v>1139</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <f>(B4-B1)</f>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>(A3-A1)</f>
-        <v>1014</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <f>(A4-A1)</f>
-        <v>1014</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
